--- a/result.xlsx
+++ b/result.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_data\50_Personal\16_WQIModel\WQi-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC056F93-2CC8-4BAD-B902-0D880DB7C4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D6DCD-7C01-4A8C-AEAD-BA809CD41C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7DC71522-DA82-4D2C-A9D6-D9001A72F0AF}"/>
+    <workbookView xWindow="-28920" yWindow="-6660" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{7DC71522-DA82-4D2C-A9D6-D9001A72F0AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
     <sheet name="Loại tds DO độ đục" sheetId="4" r:id="rId2"/>
     <sheet name="bỏ bớt cố định" sheetId="5" r:id="rId3"/>
-    <sheet name="dự đoán ngày tiếp theo" sheetId="6" r:id="rId4"/>
+    <sheet name="data 9 ao" sheetId="7" r:id="rId4"/>
+    <sheet name="linear" sheetId="8" r:id="rId5"/>
+    <sheet name="dự đoán ngày tiếp theo" sheetId="6" r:id="rId6"/>
+    <sheet name="data 4lan-ngay" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="50">
   <si>
     <t xml:space="preserve">ANN </t>
   </si>
@@ -145,7 +148,70 @@
     <t>|zscore|&lt;2</t>
   </si>
   <si>
-    <t>|zscore|&lt;1</t>
+    <t>zscore&lt;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zscore &lt;3 </t>
+  </si>
+  <si>
+    <t>zscore &lt; 2</t>
+  </si>
+  <si>
+    <t>'Vụ2-2022-A2-D4N9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Vụ2-2022-A1-D5N9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Vụ2-2022-A2-D5N10',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Vụ2-2022-B4-D5N9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Vụ2-2021-A13-D5N9',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Vụ2-2021-A13-D6N13',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Vụ2-2022-B11-D4N4',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Vụ3-2021-A14-A14N13',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Vụ3-2021-A14-A14N9'</t>
+  </si>
+  <si>
+    <t>zscore &lt;2</t>
+  </si>
+  <si>
+    <t>zscore &lt;3</t>
+  </si>
+  <si>
+    <t>Linear regression</t>
+  </si>
+  <si>
+    <t>Ridge regression</t>
+  </si>
+  <si>
+    <t>Thông số dễ đo: Nhiệt độ, pH, Độ mặn</t>
+  </si>
+  <si>
+    <t>32
+24
+16
+8</t>
+  </si>
+  <si>
+    <t>20
+15
+10
+5</t>
+  </si>
+  <si>
+    <t>4  hidden layers</t>
   </si>
 </sst>
 </file>
@@ -156,7 +222,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +243,21 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +276,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6C9EC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -315,12 +412,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -348,6 +506,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -383,6 +589,78 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,7 +896,7 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>515189</xdr:rowOff>
+      <xdr:rowOff>362789</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -951,7 +1229,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>20254</xdr:rowOff>
     </xdr:to>
@@ -1015,6 +1293,143 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>158260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>105507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68432</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{277C85C6-5BCD-A410-8058-10FDC3117178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6254260" y="287215"/>
+          <a:ext cx="2960077" cy="2940075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>207707</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>225670</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>55578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9FC7036-BDCB-F010-6C28-F9DDFE9F220B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9871919" y="282799"/>
+          <a:ext cx="3058636" cy="3073704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19595</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -1022,9 +1437,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>561407</xdr:colOff>
+      <xdr:colOff>555692</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>220980</xdr:rowOff>
+      <xdr:rowOff>211455</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1088,7 +1503,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>484909</xdr:colOff>
+      <xdr:colOff>479194</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>92292</xdr:rowOff>
     </xdr:to>
@@ -1154,9 +1569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>391885</xdr:colOff>
+      <xdr:colOff>397600</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>46470</xdr:rowOff>
+      <xdr:rowOff>57900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1194,6 +1609,539 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>185056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>250371</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD79444-4F2D-74EC-2EDB-DAC53DFBFF06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9720943" y="1295399"/>
+          <a:ext cx="4484914" cy="4545607"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>54429</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>397329</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2282194-2C93-AB08-A20B-097035D682A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14641286" y="1224643"/>
+          <a:ext cx="4629150" cy="4458936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37652</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>87966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>245186</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A583BC68-BFC9-37DD-643D-372972074CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9685917" y="8537201"/>
+          <a:ext cx="4433832" cy="4401783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>441634</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>50539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>130885</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>167968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB662681-F606-F2B2-3894-A4B0B38F9039}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14325722" y="8499774"/>
+          <a:ext cx="4522572" cy="4439090"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>103911</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>144261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>475549</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>134563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10288415-337C-39A5-A48A-D4D236EC49AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19482956" y="1183352"/>
+          <a:ext cx="4622213" cy="4408516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>136642</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>515735</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>18696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC640194-67ED-7350-6979-7DD793300B2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="24364778" y="1200671"/>
+          <a:ext cx="4625858" cy="4467562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>320585</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>155199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FB36571-4AEC-8FF1-A93B-20C4C15D5433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9688287" y="14491607"/>
+          <a:ext cx="4599214" cy="4482271"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17417</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>25310</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>299781</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE9959DF-DCBE-9AF8-0D08-4D18966DC85D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14604274" y="14516917"/>
+          <a:ext cx="4568614" cy="4465047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
@@ -1534,7 +2482,7 @@
   <dimension ref="C1:I24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1571,13 +2519,13 @@
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
@@ -1600,10 +2548,10 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="7">
         <v>17.928999999999998</v>
       </c>
@@ -1621,10 +2569,10 @@
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="7">
         <v>19.971</v>
       </c>
@@ -1639,16 +2587,16 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="1"/>
@@ -1661,8 +2609,8 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="12"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="30"/>
+      <c r="D13" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1682,8 +2630,8 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="12"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1701,8 +2649,8 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="12"/>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1722,8 +2670,8 @@
       </c>
     </row>
     <row r="16" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="12"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="6" t="s">
         <v>12</v>
       </c>
@@ -1741,8 +2689,8 @@
       </c>
     </row>
     <row r="17" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C17" s="12"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="30"/>
+      <c r="D17" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1762,8 +2710,8 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C18" s="13"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="6" t="s">
         <v>10</v>
       </c>
@@ -1816,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFFFD5A4-DA9F-48DE-8330-8F7B3C1CEA3E}">
-  <dimension ref="B2:H21"/>
+  <dimension ref="B2:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1855,13 +2803,15 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
@@ -1880,14 +2830,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="20"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="7">
         <v>18.119</v>
       </c>
@@ -1905,10 +2855,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="20"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="7">
         <v>20.443999999999999</v>
       </c>
@@ -1923,16 +2873,16 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="29" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="1"/>
@@ -1945,8 +2895,8 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="39" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1966,8 +2916,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1985,8 +2935,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -2006,8 +2956,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="22"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
@@ -2025,8 +2975,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="39" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -2046,8 +2996,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="22"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
@@ -2064,8 +3014,220 @@
         <v>0.39400000000000002</v>
       </c>
     </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="18"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="45"/>
+      <c r="E49" s="21">
+        <v>14.555</v>
+      </c>
+      <c r="F49" s="22">
+        <v>11.103999999999999</v>
+      </c>
+      <c r="G49" s="23">
+        <v>7.1220000000000006E-2</v>
+      </c>
+      <c r="H49" s="22">
+        <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" s="45"/>
+      <c r="E50" s="21">
+        <v>17.356000000000002</v>
+      </c>
+      <c r="F50" s="22">
+        <v>13.536</v>
+      </c>
+      <c r="G50" s="23">
+        <v>8.6940000000000003E-2</v>
+      </c>
+      <c r="H50" s="22">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="46"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B52" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="22"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B53" s="50"/>
+      <c r="C53" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="20">
+        <v>10</v>
+      </c>
+      <c r="E53" s="21">
+        <v>17.202999999999999</v>
+      </c>
+      <c r="F53" s="22">
+        <v>13.31</v>
+      </c>
+      <c r="G53" s="23">
+        <v>8.6019999999999999E-2</v>
+      </c>
+      <c r="H53" s="22">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B54" s="50"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="20">
+        <v>30</v>
+      </c>
+      <c r="E54" s="21">
+        <v>17.457999999999998</v>
+      </c>
+      <c r="F54" s="22">
+        <v>13.513</v>
+      </c>
+      <c r="G54" s="23">
+        <v>8.6849999999999997E-2</v>
+      </c>
+      <c r="H54" s="22">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="50"/>
+      <c r="C55" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="21">
+        <v>17.478000000000002</v>
+      </c>
+      <c r="F55" s="22">
+        <v>13.265000000000001</v>
+      </c>
+      <c r="G55" s="23">
+        <v>8.5809999999999997E-2</v>
+      </c>
+      <c r="H55" s="22">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="50"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="21">
+        <v>16.922000000000001</v>
+      </c>
+      <c r="F56" s="22">
+        <v>12.763</v>
+      </c>
+      <c r="G56" s="23">
+        <v>8.2439999999999999E-2</v>
+      </c>
+      <c r="H56" s="22">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B57" s="50"/>
+      <c r="C57" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="21">
+        <v>18.061</v>
+      </c>
+      <c r="F57" s="22">
+        <v>13.576000000000001</v>
+      </c>
+      <c r="G57" s="23">
+        <v>8.8319999999999996E-2</v>
+      </c>
+      <c r="H57" s="22">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B58" s="51"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="21">
+        <v>17.573</v>
+      </c>
+      <c r="F58" s="21">
+        <v>13.628</v>
+      </c>
+      <c r="G58" s="23">
+        <v>8.8569999999999996E-2</v>
+      </c>
+      <c r="H58" s="21">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
@@ -2074,6 +3236,14 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B52:B58"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2082,10 +3252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35805FA-EE61-404C-9239-E4190990E709}">
-  <dimension ref="C4:I23"/>
+  <dimension ref="C4:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2093,6 +3263,7 @@
     <col min="3" max="3" width="24.5546875" customWidth="1"/>
     <col min="4" max="4" width="25.88671875" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:9" x14ac:dyDescent="0.3">
@@ -2121,13 +3292,15 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
+      <c r="C12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
@@ -2150,10 +3323,10 @@
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="20"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="7">
         <v>19.337</v>
       </c>
@@ -2171,10 +3344,10 @@
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="20"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="7">
         <v>20.259</v>
       </c>
@@ -2189,16 +3362,16 @@
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
     </row>
     <row r="17" spans="3:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="1"/>
@@ -2211,8 +3384,8 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
-      <c r="D18" s="21" t="s">
+      <c r="C18" s="30"/>
+      <c r="D18" s="39" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2232,8 +3405,8 @@
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="12"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2251,8 +3424,8 @@
       </c>
     </row>
     <row r="20" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="12"/>
-      <c r="D20" s="21" t="s">
+      <c r="C20" s="30"/>
+      <c r="D20" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -2272,8 +3445,8 @@
       </c>
     </row>
     <row r="21" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C21" s="12"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="6" t="s">
         <v>12</v>
       </c>
@@ -2291,8 +3464,8 @@
       </c>
     </row>
     <row r="22" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C22" s="12"/>
-      <c r="D22" s="21" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -2312,8 +3485,8 @@
       </c>
     </row>
     <row r="23" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="13"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
@@ -2330,8 +3503,220 @@
         <v>0.34399999999999997</v>
       </c>
     </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="34"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="38"/>
+      <c r="F56" s="7">
+        <v>14.776999999999999</v>
+      </c>
+      <c r="G56" s="8">
+        <v>11.265000000000001</v>
+      </c>
+      <c r="H56" s="9">
+        <v>7.2340000000000002E-2</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="38"/>
+      <c r="F57" s="7">
+        <v>16.574000000000002</v>
+      </c>
+      <c r="G57" s="8">
+        <v>12.462999999999999</v>
+      </c>
+      <c r="H57" s="9">
+        <v>7.8839999999999993E-2</v>
+      </c>
+      <c r="I57" s="8">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="35"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="37"/>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C59" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C60" s="30"/>
+      <c r="D60" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="7">
+        <v>17.966999999999999</v>
+      </c>
+      <c r="G60" s="8">
+        <v>13.885</v>
+      </c>
+      <c r="H60" s="9">
+        <v>9.0359999999999996E-2</v>
+      </c>
+      <c r="I60" s="8">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C61" s="30"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="7">
+        <v>17.771999999999998</v>
+      </c>
+      <c r="G61" s="8">
+        <v>13.84</v>
+      </c>
+      <c r="H61" s="9">
+        <v>9.0240000000000001E-2</v>
+      </c>
+      <c r="I61" s="8">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C62" s="30"/>
+      <c r="D62" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="7">
+        <v>17.939</v>
+      </c>
+      <c r="G62" s="8">
+        <v>13.938000000000001</v>
+      </c>
+      <c r="H62" s="9">
+        <v>9.0620000000000006E-2</v>
+      </c>
+      <c r="I62" s="8">
+        <v>0.17799999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C63" s="30"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="7">
+        <v>18.041</v>
+      </c>
+      <c r="G63" s="8">
+        <v>13.685</v>
+      </c>
+      <c r="H63" s="9">
+        <v>8.9700000000000002E-2</v>
+      </c>
+      <c r="I63" s="8">
+        <v>0.16900000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C64" s="30"/>
+      <c r="D64" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="7">
+        <v>17.481000000000002</v>
+      </c>
+      <c r="G64" s="8">
+        <v>13.331</v>
+      </c>
+      <c r="H64" s="9">
+        <v>8.7230000000000002E-2</v>
+      </c>
+      <c r="I64" s="8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C65" s="31"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="7">
+        <v>18.561</v>
+      </c>
+      <c r="G65" s="7">
+        <v>14.46</v>
+      </c>
+      <c r="H65" s="9">
+        <v>9.4350000000000003E-2</v>
+      </c>
+      <c r="I65" s="7">
+        <v>0.12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
     <mergeCell ref="C12:I12"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
@@ -2340,6 +3725,14 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="C58:I58"/>
+    <mergeCell ref="C59:C65"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2347,11 +3740,730 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E344BB-00A2-49E2-9A47-28DBB6647EEC}">
+  <dimension ref="B2:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H7" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H8" s="26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H9" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H10" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D13" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="7">
+        <v>16.576000000000001</v>
+      </c>
+      <c r="H15" s="8">
+        <v>12.326000000000001</v>
+      </c>
+      <c r="I15" s="9">
+        <v>8.0079999999999998E-2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="7">
+        <v>19.858000000000001</v>
+      </c>
+      <c r="H16" s="8">
+        <v>14.727</v>
+      </c>
+      <c r="I16" s="9">
+        <v>9.4359999999999999E-2</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D19" s="30"/>
+      <c r="E19" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="7">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="H19" s="8">
+        <v>13.896000000000001</v>
+      </c>
+      <c r="I19" s="9">
+        <v>9.0329999999999994E-2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D20" s="30"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7">
+        <v>18.689</v>
+      </c>
+      <c r="H20" s="8">
+        <v>14.48</v>
+      </c>
+      <c r="I20" s="9">
+        <v>9.4089999999999993E-2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.41899999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D21" s="30"/>
+      <c r="E21" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7">
+        <v>18.696000000000002</v>
+      </c>
+      <c r="H21" s="8">
+        <v>13.851000000000001</v>
+      </c>
+      <c r="I21" s="9">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.41599999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D22" s="30"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7">
+        <v>18.436</v>
+      </c>
+      <c r="H22" s="8">
+        <v>13.955</v>
+      </c>
+      <c r="I22" s="9">
+        <v>9.0690000000000007E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D23" s="30"/>
+      <c r="E23" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="7">
+        <v>19.056999999999999</v>
+      </c>
+      <c r="H23" s="8">
+        <v>14.352</v>
+      </c>
+      <c r="I23" s="9">
+        <v>9.2149999999999996E-2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.39600000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D24" s="31"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7">
+        <v>19.085000000000001</v>
+      </c>
+      <c r="H24" s="7">
+        <v>14.782</v>
+      </c>
+      <c r="I24" s="9">
+        <v>9.6949999999999995E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.39400000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D31" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="34"/>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="7">
+        <v>16.065000000000001</v>
+      </c>
+      <c r="H33" s="8">
+        <v>12.005000000000001</v>
+      </c>
+      <c r="I33" s="9">
+        <v>7.6609999999999998E-2</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0.44400000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="7">
+        <v>18.518999999999998</v>
+      </c>
+      <c r="H34" s="8">
+        <v>14.268000000000001</v>
+      </c>
+      <c r="I34" s="9">
+        <v>9.1719999999999996E-2</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="35"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D36" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="30"/>
+      <c r="E37" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="7">
+        <v>19.350999999999999</v>
+      </c>
+      <c r="H37" s="8">
+        <v>14.596</v>
+      </c>
+      <c r="I37" s="9">
+        <v>9.4640000000000002E-2</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="30"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="7">
+        <v>18.577000000000002</v>
+      </c>
+      <c r="H38" s="8">
+        <v>14.298</v>
+      </c>
+      <c r="I38" s="9">
+        <v>9.1480000000000006E-2</v>
+      </c>
+      <c r="J38" s="8">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D39" s="30"/>
+      <c r="E39" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7">
+        <v>18.181999999999999</v>
+      </c>
+      <c r="H39" s="8">
+        <v>14.180999999999999</v>
+      </c>
+      <c r="I39" s="9">
+        <v>9.0090000000000003E-2</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D40" s="30"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7">
+        <v>17.896000000000001</v>
+      </c>
+      <c r="H40" s="8">
+        <v>14.135999999999999</v>
+      </c>
+      <c r="I40" s="9">
+        <v>9.0709999999999999E-2</v>
+      </c>
+      <c r="J40" s="8">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D41" s="30"/>
+      <c r="E41" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="7">
+        <v>18.006</v>
+      </c>
+      <c r="H41" s="8">
+        <v>14.409000000000001</v>
+      </c>
+      <c r="I41" s="9">
+        <v>9.3939999999999996E-2</v>
+      </c>
+      <c r="J41" s="8">
+        <v>0.30199999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D42" s="31"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="7">
+        <v>19.957000000000001</v>
+      </c>
+      <c r="H42" s="7">
+        <v>14.945</v>
+      </c>
+      <c r="I42" s="9">
+        <v>9.5909999999999995E-2</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D36:D42"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF791BF5-895E-40F0-9F9A-3DA9D34A4167}">
+  <dimension ref="B3:H31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="7">
+        <v>21.951000000000001</v>
+      </c>
+      <c r="F12" s="8">
+        <v>17.323</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.11278000000000001</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7">
+        <v>21.998999999999999</v>
+      </c>
+      <c r="F13" s="8">
+        <v>17.344000000000001</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.11280999999999999</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="7">
+        <v>21.97</v>
+      </c>
+      <c r="F30" s="8">
+        <v>17.143000000000001</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.11153</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="7">
+        <v>22.003</v>
+      </c>
+      <c r="F31" s="8">
+        <v>17.169</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.11165</v>
+      </c>
+      <c r="H31" s="8">
+        <v>0.217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E094C2-B4CB-43B1-8E60-E834D5EB5CDD}">
   <dimension ref="B3:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2382,7 +4494,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
@@ -2396,15 +4508,15 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="34"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
@@ -2427,10 +4539,10 @@
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="20"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="7">
         <v>21.106999999999999</v>
       </c>
@@ -2448,10 +4560,10 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="7">
         <v>21.571999999999999</v>
       </c>
@@ -2466,16 +4578,16 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
     </row>
     <row r="16" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="1"/>
@@ -2488,8 +4600,8 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D17" s="12"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="39" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -2509,8 +4621,8 @@
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D18" s="12"/>
-      <c r="E18" s="22"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="5" t="s">
         <v>18</v>
       </c>
@@ -2528,8 +4640,8 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D19" s="12"/>
-      <c r="E19" s="21" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="39" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -2549,8 +4661,8 @@
       </c>
     </row>
     <row r="20" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D20" s="12"/>
-      <c r="E20" s="22"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="6" t="s">
         <v>12</v>
       </c>
@@ -2568,8 +4680,8 @@
       </c>
     </row>
     <row r="21" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D21" s="12"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="30"/>
+      <c r="E21" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -2589,8 +4701,8 @@
       </c>
     </row>
     <row r="22" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D22" s="13"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="40"/>
       <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
@@ -2608,15 +4720,15 @@
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="34"/>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
@@ -2639,55 +4751,55 @@
       <c r="D57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="20"/>
+      <c r="F57" s="38"/>
       <c r="G57" s="7">
-        <v>21.106999999999999</v>
+        <v>14.680999999999999</v>
       </c>
       <c r="H57" s="8">
-        <v>13.234</v>
+        <v>11.170999999999999</v>
       </c>
       <c r="I57" s="9">
-        <v>8.5290000000000005E-2</v>
+        <v>6.9610000000000005E-2</v>
       </c>
       <c r="J57" s="8">
-        <v>0.48599999999999999</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="E58" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="20"/>
+      <c r="F58" s="38"/>
       <c r="G58" s="7">
-        <v>21.571999999999999</v>
+        <v>15.167</v>
       </c>
       <c r="H58" s="8">
-        <v>13.741</v>
+        <v>11.166</v>
       </c>
       <c r="I58" s="9">
-        <v>8.8270000000000001E-2</v>
+        <v>6.9430000000000006E-2</v>
       </c>
       <c r="J58" s="8">
-        <v>0.46300000000000002</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D59" s="17"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="19"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="37"/>
     </row>
     <row r="60" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="29" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="1"/>
@@ -2700,267 +4812,237 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D61" s="12"/>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="30"/>
+      <c r="E61" s="39" t="s">
         <v>1</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="8"/>
+      <c r="G61" s="7">
+        <v>15.103</v>
+      </c>
+      <c r="H61" s="8">
+        <v>11.228</v>
+      </c>
+      <c r="I61" s="9">
+        <v>6.9760000000000003E-2</v>
+      </c>
+      <c r="J61" s="8">
+        <v>0.35499999999999998</v>
+      </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D62" s="12"/>
-      <c r="E62" s="22"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="40"/>
       <c r="F62" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="8"/>
+      <c r="G62" s="7">
+        <v>15.551</v>
+      </c>
+      <c r="H62" s="8">
+        <v>11.452</v>
+      </c>
+      <c r="I62" s="9">
+        <v>7.1580000000000005E-2</v>
+      </c>
+      <c r="J62" s="8">
+        <v>0.316</v>
+      </c>
     </row>
     <row r="63" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D63" s="12"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="30"/>
+      <c r="E63" s="39" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="8"/>
+      <c r="G63" s="7">
+        <v>15.497999999999999</v>
+      </c>
+      <c r="H63" s="8">
+        <v>11.65</v>
+      </c>
+      <c r="I63" s="9">
+        <v>7.2660000000000002E-2</v>
+      </c>
+      <c r="J63" s="8">
+        <v>0.32100000000000001</v>
+      </c>
     </row>
     <row r="64" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D64" s="12"/>
-      <c r="E64" s="22"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="40"/>
       <c r="F64" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="8"/>
+      <c r="G64" s="7">
+        <v>15.103999999999999</v>
+      </c>
+      <c r="H64" s="8">
+        <v>11.374000000000001</v>
+      </c>
+      <c r="I64" s="9">
+        <v>7.1050000000000002E-2</v>
+      </c>
+      <c r="J64" s="8">
+        <v>0.35499999999999998</v>
+      </c>
     </row>
     <row r="65" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D65" s="12"/>
-      <c r="E65" s="21" t="s">
+      <c r="D65" s="30"/>
+      <c r="E65" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="8"/>
+      <c r="G65" s="7">
+        <v>15.448</v>
+      </c>
+      <c r="H65" s="8">
+        <v>11.624000000000001</v>
+      </c>
+      <c r="I65" s="9">
+        <v>7.2150000000000006E-2</v>
+      </c>
+      <c r="J65" s="8">
+        <v>0.32500000000000001</v>
+      </c>
     </row>
     <row r="66" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D66" s="13"/>
-      <c r="E66" s="22"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="40"/>
       <c r="F66" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="7">
-        <v>22.077999999999999</v>
+        <v>15.347</v>
       </c>
       <c r="H66" s="7">
-        <v>14.441000000000001</v>
+        <v>11.587</v>
       </c>
       <c r="I66" s="9">
-        <v>9.3659999999999993E-2</v>
+        <v>7.2209999999999996E-2</v>
       </c>
       <c r="J66" s="7">
-        <v>0.438</v>
+        <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D72" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="7">
-        <v>21.106999999999999</v>
-      </c>
-      <c r="H74" s="8">
-        <v>13.234</v>
-      </c>
-      <c r="I74" s="9">
-        <v>8.5290000000000005E-2</v>
-      </c>
-      <c r="J74" s="8">
-        <v>0.48599999999999999</v>
-      </c>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D75" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="7">
-        <v>21.571999999999999</v>
-      </c>
-      <c r="H75" s="8">
-        <v>13.741</v>
-      </c>
-      <c r="I75" s="9">
-        <v>8.8270000000000001E-2</v>
-      </c>
-      <c r="J75" s="8">
-        <v>0.46300000000000002</v>
-      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="13"/>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D76" s="17"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="19"/>
-    </row>
-    <row r="77" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D77" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="8"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D77" s="12"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="13"/>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D78" s="12"/>
-      <c r="E78" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="8"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D79" s="12"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="8"/>
-    </row>
-    <row r="80" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E79" s="11"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="13"/>
+    </row>
+    <row r="80" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D80" s="12"/>
-      <c r="E80" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="7"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="8"/>
-    </row>
-    <row r="81" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E80" s="11"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="13"/>
+    </row>
+    <row r="81" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D81" s="12"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="8"/>
-    </row>
-    <row r="82" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E81" s="11"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="13"/>
+    </row>
+    <row r="82" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D82" s="12"/>
-      <c r="E82" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="8"/>
-    </row>
-    <row r="83" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D83" s="13"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83" s="7">
-        <v>22.068000000000001</v>
-      </c>
-      <c r="H83" s="7">
-        <v>14.32</v>
-      </c>
-      <c r="I83" s="9">
-        <v>9.2810000000000004E-2</v>
-      </c>
-      <c r="J83" s="7">
-        <v>0.438</v>
-      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="13"/>
+    </row>
+    <row r="83" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D83" s="12"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="D72:J72"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="D76:J76"/>
-    <mergeCell ref="D77:D83"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="E82:E83"/>
+  <mergeCells count="16">
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
     <mergeCell ref="D55:J55"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
@@ -2969,14 +5051,1151 @@
     <mergeCell ref="E61:E62"/>
     <mergeCell ref="E63:E64"/>
     <mergeCell ref="E65:E66"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:D22"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593E860B-31CE-49AA-819C-5582CF48EF8C}">
+  <dimension ref="B2:I93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC60" sqref="AC60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="7">
+        <v>11.747999999999999</v>
+      </c>
+      <c r="G11" s="8">
+        <v>8.3490000000000002</v>
+      </c>
+      <c r="H11" s="9">
+        <v>5.4919999999999997E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="7">
+        <v>15.484</v>
+      </c>
+      <c r="G12" s="8">
+        <v>11.25</v>
+      </c>
+      <c r="H12" s="9">
+        <v>7.3880000000000001E-2</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="58"/>
+      <c r="D15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="7">
+        <v>17.541</v>
+      </c>
+      <c r="G15" s="8">
+        <v>12.776999999999999</v>
+      </c>
+      <c r="H15" s="9">
+        <v>8.3640000000000006E-2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="58"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7">
+        <v>16.847000000000001</v>
+      </c>
+      <c r="G16" s="8">
+        <v>12.427</v>
+      </c>
+      <c r="H16" s="9">
+        <v>8.1490000000000007E-2</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C17" s="58"/>
+      <c r="D17" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="7">
+        <v>15.723000000000001</v>
+      </c>
+      <c r="G17" s="8">
+        <v>11.413</v>
+      </c>
+      <c r="H17" s="9">
+        <v>7.5190000000000007E-2</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C18" s="58"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7">
+        <v>16.863</v>
+      </c>
+      <c r="G18" s="8">
+        <v>12.361000000000001</v>
+      </c>
+      <c r="H18" s="9">
+        <v>8.1769999999999995E-2</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C19" s="58"/>
+      <c r="D19" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7">
+        <v>15.481</v>
+      </c>
+      <c r="G19" s="8">
+        <v>11.336</v>
+      </c>
+      <c r="H19" s="9">
+        <v>7.4749999999999997E-2</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C20" s="58"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7">
+        <v>16.864999999999998</v>
+      </c>
+      <c r="G20" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="H20" s="9">
+        <v>8.1360000000000002E-2</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C21" s="58"/>
+      <c r="D21" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="60">
+        <v>15.784000000000001</v>
+      </c>
+      <c r="G21" s="56">
+        <v>11.292999999999999</v>
+      </c>
+      <c r="H21" s="55">
+        <v>7.4380000000000002E-2</v>
+      </c>
+      <c r="I21" s="56">
+        <v>0.55900000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C22" s="58"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C23" s="58"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="58"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="58"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="60">
+        <v>16.449000000000002</v>
+      </c>
+      <c r="G25" s="56">
+        <v>12.227</v>
+      </c>
+      <c r="H25" s="55">
+        <v>8.1070000000000003E-2</v>
+      </c>
+      <c r="I25" s="56">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="58"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C27" s="58"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C28" s="59"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C41" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="7">
+        <v>12.205</v>
+      </c>
+      <c r="G43" s="8">
+        <v>8.718</v>
+      </c>
+      <c r="H43" s="9">
+        <v>5.7189999999999998E-2</v>
+      </c>
+      <c r="I43" s="8">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="7">
+        <v>15.252000000000001</v>
+      </c>
+      <c r="G44" s="8">
+        <v>11.085000000000001</v>
+      </c>
+      <c r="H44" s="9">
+        <v>7.281E-2</v>
+      </c>
+      <c r="I44" s="8">
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C46" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C47" s="58"/>
+      <c r="D47" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="7">
+        <v>18.613</v>
+      </c>
+      <c r="G47" s="8">
+        <v>3.9359999999999999</v>
+      </c>
+      <c r="H47" s="9">
+        <v>9.1950000000000004E-2</v>
+      </c>
+      <c r="I47" s="8">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C48" s="58"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="7">
+        <v>17.904</v>
+      </c>
+      <c r="G48" s="8">
+        <v>13.202999999999999</v>
+      </c>
+      <c r="H48" s="9">
+        <v>8.6120000000000002E-2</v>
+      </c>
+      <c r="I48" s="8">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C49" s="58"/>
+      <c r="D49" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="7">
+        <v>16.331</v>
+      </c>
+      <c r="G49" s="8">
+        <v>11.91</v>
+      </c>
+      <c r="H49" s="9">
+        <v>7.8979999999999995E-2</v>
+      </c>
+      <c r="I49" s="8">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C50" s="58"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="7">
+        <v>17.207999999999998</v>
+      </c>
+      <c r="G50" s="8">
+        <v>12.701000000000001</v>
+      </c>
+      <c r="H50" s="9">
+        <v>8.43E-2</v>
+      </c>
+      <c r="I50" s="8">
+        <v>0.52400000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C51" s="58"/>
+      <c r="D51" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="7">
+        <v>16.443000000000001</v>
+      </c>
+      <c r="G51" s="8">
+        <v>12.137</v>
+      </c>
+      <c r="H51" s="9">
+        <v>0.8054</v>
+      </c>
+      <c r="I51" s="8">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C52" s="58"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="7">
+        <v>17.442</v>
+      </c>
+      <c r="G52" s="7">
+        <v>12.907999999999999</v>
+      </c>
+      <c r="H52" s="9">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C53" s="58"/>
+      <c r="D53" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="60">
+        <v>16.405000000000001</v>
+      </c>
+      <c r="G53" s="56">
+        <v>11.96</v>
+      </c>
+      <c r="H53" s="55">
+        <v>7.8710000000000002E-2</v>
+      </c>
+      <c r="I53" s="56">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="58"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="56"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C55" s="58"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="56"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C56" s="58"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="56"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="58"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="60">
+        <v>17.178000000000001</v>
+      </c>
+      <c r="G57" s="56">
+        <v>12.673999999999999</v>
+      </c>
+      <c r="H57" s="55">
+        <v>8.5080000000000003E-2</v>
+      </c>
+      <c r="I57" s="56">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="58"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="56"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C59" s="58"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="56"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C60" s="59"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="56"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" s="28"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C70" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="34"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="38"/>
+      <c r="F72" s="7">
+        <v>12.335000000000001</v>
+      </c>
+      <c r="G72" s="8">
+        <v>8.5960000000000001</v>
+      </c>
+      <c r="H72" s="9">
+        <v>5.6640000000000003E-2</v>
+      </c>
+      <c r="I72" s="8">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="38"/>
+      <c r="F73" s="7">
+        <v>12.414</v>
+      </c>
+      <c r="G73" s="8">
+        <v>8.5259999999999998</v>
+      </c>
+      <c r="H73" s="9">
+        <v>5.6070000000000002E-2</v>
+      </c>
+      <c r="I73" s="8">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C74" s="35"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="37"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C75" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="8"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C76" s="58"/>
+      <c r="D76" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="7">
+        <v>13.032</v>
+      </c>
+      <c r="G76" s="8">
+        <v>8.8040000000000003</v>
+      </c>
+      <c r="H76" s="9">
+        <v>5.808E-2</v>
+      </c>
+      <c r="I76" s="8">
+        <v>0.72599999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C77" s="58"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="5">
+        <v>20</v>
+      </c>
+      <c r="F77" s="7">
+        <v>12.891</v>
+      </c>
+      <c r="G77" s="8">
+        <v>8.6609999999999996</v>
+      </c>
+      <c r="H77" s="9">
+        <v>5.679E-2</v>
+      </c>
+      <c r="I77" s="8">
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C78" s="58"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="7">
+        <v>12.709</v>
+      </c>
+      <c r="G78" s="8">
+        <v>8.5579999999999998</v>
+      </c>
+      <c r="H78" s="9">
+        <v>5.6270000000000001E-2</v>
+      </c>
+      <c r="I78" s="8">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C79" s="58"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="7">
+        <v>40</v>
+      </c>
+      <c r="F79" s="7">
+        <v>12.869</v>
+      </c>
+      <c r="G79" s="7">
+        <v>8.6649999999999991</v>
+      </c>
+      <c r="H79" s="9">
+        <v>5.6559999999999999E-2</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C80" s="58"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="7">
+        <v>50</v>
+      </c>
+      <c r="F80" s="7">
+        <v>12.811</v>
+      </c>
+      <c r="G80" s="7">
+        <v>8.5690000000000008</v>
+      </c>
+      <c r="H80" s="7">
+        <v>5.6219999999999999</v>
+      </c>
+      <c r="I80" s="7">
+        <v>0.73499999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C81" s="58"/>
+      <c r="D81" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="7">
+        <v>12.946</v>
+      </c>
+      <c r="G81" s="8">
+        <v>9</v>
+      </c>
+      <c r="H81" s="9">
+        <v>5.8749999999999997E-2</v>
+      </c>
+      <c r="I81" s="8">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C82" s="58"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="7">
+        <v>13.015000000000001</v>
+      </c>
+      <c r="G82" s="8">
+        <v>9.0389999999999997</v>
+      </c>
+      <c r="H82" s="9">
+        <v>5.9330000000000001E-2</v>
+      </c>
+      <c r="I82" s="8">
+        <v>0.72699999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C83" s="58"/>
+      <c r="D83" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="7">
+        <v>13.42</v>
+      </c>
+      <c r="G83" s="8">
+        <v>9.0609999999999999</v>
+      </c>
+      <c r="H83" s="9">
+        <v>6.3530000000000003E-2</v>
+      </c>
+      <c r="I83" s="8">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C84" s="58"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="7">
+        <v>13.53</v>
+      </c>
+      <c r="G84" s="7">
+        <v>9.5310000000000006</v>
+      </c>
+      <c r="H84" s="9">
+        <v>6.3049999999999995E-2</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C85" s="58"/>
+      <c r="D85" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="60">
+        <v>13.427</v>
+      </c>
+      <c r="G85" s="56">
+        <v>9.5060000000000002</v>
+      </c>
+      <c r="H85" s="55">
+        <v>6.3420000000000004E-2</v>
+      </c>
+      <c r="I85" s="56">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C86" s="58"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="56"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="56"/>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C87" s="58"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="56"/>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C88" s="58"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="60"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="56"/>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C89" s="58"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="F89" s="60">
+        <v>13.492000000000001</v>
+      </c>
+      <c r="G89" s="56">
+        <v>9.8070000000000004</v>
+      </c>
+      <c r="H89" s="55">
+        <v>6.4149999999999999E-2</v>
+      </c>
+      <c r="I89" s="56">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C90" s="58"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="60"/>
+      <c r="G90" s="56"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="56"/>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C91" s="58"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="56"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C92" s="59"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="56"/>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="F93" s="64">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="I85:I88"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="G89:G92"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="G85:G88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="D85:D92"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C14:C28"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="C46:C60"/>
+    <mergeCell ref="C70:I70"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="C74:I74"/>
+    <mergeCell ref="D76:D80"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C75:C92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01_data\50_Personal\16_WQIModel\WQi-Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226D6DCD-7C01-4A8C-AEAD-BA809CD41C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FE59A7-0227-4724-8C19-149D082639B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-6660" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{7DC71522-DA82-4D2C-A9D6-D9001A72F0AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{7DC71522-DA82-4D2C-A9D6-D9001A72F0AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="linear" sheetId="8" r:id="rId5"/>
     <sheet name="dự đoán ngày tiếp theo" sheetId="6" r:id="rId6"/>
     <sheet name="data 4lan-ngay" sheetId="9" r:id="rId7"/>
+    <sheet name="Đợt 1" sheetId="10" r:id="rId8"/>
+    <sheet name="Đợt 2" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="73">
   <si>
     <t xml:space="preserve">ANN </t>
   </si>
@@ -213,6 +215,377 @@
   <si>
     <t>4  hidden layers</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Season, Loại ao, Công nghệ nuôi, Giống tôm, Tuổi tôm, area</t>
+  </si>
+  <si>
+    <t>Nhiệt độ, pH, DO</t>
+  </si>
+  <si>
+    <t>Độ mặn, TDS, Độ đục. Độ trong</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Độ mặn,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> TDS, Độ đục. Độ trong</t>
+    </r>
+  </si>
+  <si>
+    <t>Độ mặn, TDS, Độ đục, Độ trong</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Độ mặn, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Độ đục, Độ trong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Độ mặn, TDS, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Độ đục</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Độ trong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Độ mặn, TDS, Độ đục, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Độ trong</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Season,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Loại ao, Công nghệ nuôi, Giống tôm, Tuổi tôm, area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Season, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Loại ao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Công nghệ nuôi, Giống tôm, Tuổi tôm, area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Season, Loại ao,</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Công nghệ nuôi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Giống tôm, Tuổi tôm, area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Season, Loại ao, Công nghệ nuôi,</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giống tôm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Tuổi tôm, area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Season, Loại ao, Công nghệ nuôi, Giống tôm, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tuổi tôm,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Season, Loại ao, Công nghệ nuôi, Giống tôm, Tuổi tôm, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Season, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Loại ao, Công nghệ nuôi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Giống tôm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Tuổi tôm, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>area</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Season, Loại ao, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Công nghệ nuôi, Giống tôm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Tuổi tôm, area</t>
+    </r>
+  </si>
+  <si>
+    <t>SVR regressor</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Độ mặn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, TDS, Độ đục, Độ trong</t>
+    </r>
+  </si>
+  <si>
+    <t>Độ cứng</t>
+  </si>
+  <si>
+    <t>Độ màu</t>
+  </si>
+  <si>
+    <t>Silica</t>
+  </si>
+  <si>
+    <t>Độ cứng, Độ màu, Silica</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +595,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,8 +629,16 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +672,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -554,6 +947,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,11 +1037,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,21 +1049,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2162,6 +2565,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>588065</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>159086</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE01322-45FC-4A08-18A6-CC3FF18AFA48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038022" y="1093305"/>
+          <a:ext cx="5491369" cy="5443390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2519,13 +2971,13 @@
       </c>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
@@ -2548,10 +3000,10 @@
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="7">
         <v>17.928999999999998</v>
       </c>
@@ -2569,10 +3021,10 @@
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="7">
         <v>19.971</v>
       </c>
@@ -2587,16 +3039,16 @@
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D12" s="1"/>
@@ -2609,8 +3061,8 @@
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="30"/>
-      <c r="D13" s="39" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="43" t="s">
         <v>1</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2630,8 +3082,8 @@
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="30"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2649,8 +3101,8 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C15" s="30"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -2670,8 +3122,8 @@
       </c>
     </row>
     <row r="16" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C16" s="30"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="6" t="s">
         <v>12</v>
       </c>
@@ -2689,8 +3141,8 @@
       </c>
     </row>
     <row r="17" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C17" s="30"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="43" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -2710,8 +3162,8 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C18" s="31"/>
-      <c r="D18" s="40"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="6" t="s">
         <v>10</v>
       </c>
@@ -2803,15 +3255,15 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
@@ -2834,10 +3286,10 @@
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="38"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="7">
         <v>18.119</v>
       </c>
@@ -2855,10 +3307,10 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="38"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="7">
         <v>20.443999999999999</v>
       </c>
@@ -2873,16 +3325,16 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="33" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="1"/>
@@ -2895,8 +3347,8 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -2916,8 +3368,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="40"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="5" t="s">
         <v>18</v>
       </c>
@@ -2935,8 +3387,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -2956,8 +3408,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="40"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
@@ -2975,8 +3427,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="39" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -2996,8 +3448,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="31"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
@@ -3015,15 +3467,15 @@
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="47"/>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="18"/>
@@ -3046,10 +3498,10 @@
       <c r="B49" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="45"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="21">
         <v>14.555</v>
       </c>
@@ -3067,10 +3519,10 @@
       <c r="B50" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="45"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="21">
         <v>17.356000000000002</v>
       </c>
@@ -3085,16 +3537,16 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="46"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="53" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="18"/>
@@ -3107,8 +3559,8 @@
       <c r="H52" s="22"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B53" s="50"/>
-      <c r="C53" s="52" t="s">
+      <c r="B53" s="54"/>
+      <c r="C53" s="56" t="s">
         <v>1</v>
       </c>
       <c r="D53" s="20">
@@ -3128,8 +3580,8 @@
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B54" s="50"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="57"/>
       <c r="D54" s="20">
         <v>30</v>
       </c>
@@ -3147,8 +3599,8 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B55" s="50"/>
-      <c r="C55" s="54" t="s">
+      <c r="B55" s="54"/>
+      <c r="C55" s="58" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="25" t="s">
@@ -3168,8 +3620,8 @@
       </c>
     </row>
     <row r="56" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="50"/>
-      <c r="C56" s="53"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="57"/>
       <c r="D56" s="25" t="s">
         <v>12</v>
       </c>
@@ -3187,8 +3639,8 @@
       </c>
     </row>
     <row r="57" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B57" s="50"/>
-      <c r="C57" s="54" t="s">
+      <c r="B57" s="54"/>
+      <c r="C57" s="58" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="25" t="s">
@@ -3208,8 +3660,8 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B58" s="51"/>
-      <c r="C58" s="53"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="57"/>
       <c r="D58" s="25" t="s">
         <v>10</v>
       </c>
@@ -3292,15 +3744,15 @@
       </c>
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="34"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
@@ -3323,10 +3775,10 @@
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="38"/>
+      <c r="E14" s="42"/>
       <c r="F14" s="7">
         <v>19.337</v>
       </c>
@@ -3344,10 +3796,10 @@
       <c r="C15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="38"/>
+      <c r="E15" s="42"/>
       <c r="F15" s="7">
         <v>20.259</v>
       </c>
@@ -3362,16 +3814,16 @@
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
     </row>
     <row r="17" spans="3:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D17" s="1"/>
@@ -3384,8 +3836,8 @@
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="30"/>
-      <c r="D18" s="39" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="43" t="s">
         <v>1</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -3405,8 +3857,8 @@
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C19" s="30"/>
-      <c r="D19" s="40"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="5" t="s">
         <v>18</v>
       </c>
@@ -3424,8 +3876,8 @@
       </c>
     </row>
     <row r="20" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C20" s="30"/>
-      <c r="D20" s="39" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -3445,8 +3897,8 @@
       </c>
     </row>
     <row r="21" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C21" s="30"/>
-      <c r="D21" s="40"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="6" t="s">
         <v>12</v>
       </c>
@@ -3464,8 +3916,8 @@
       </c>
     </row>
     <row r="22" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C22" s="30"/>
-      <c r="D22" s="39" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="43" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="6" t="s">
@@ -3485,8 +3937,8 @@
       </c>
     </row>
     <row r="23" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C23" s="31"/>
-      <c r="D23" s="40"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="44"/>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
@@ -3504,15 +3956,15 @@
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="34"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="38"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
@@ -3535,10 +3987,10 @@
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="38" t="s">
+      <c r="D56" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="38"/>
+      <c r="E56" s="42"/>
       <c r="F56" s="7">
         <v>14.776999999999999</v>
       </c>
@@ -3556,10 +4008,10 @@
       <c r="C57" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="38" t="s">
+      <c r="D57" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="38"/>
+      <c r="E57" s="42"/>
       <c r="F57" s="7">
         <v>16.574000000000002</v>
       </c>
@@ -3574,16 +4026,16 @@
       </c>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="35"/>
-      <c r="D58" s="36"/>
-      <c r="E58" s="36"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="37"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="41"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="29" t="s">
+      <c r="C59" s="33" t="s">
         <v>0</v>
       </c>
       <c r="D59" s="1"/>
@@ -3596,8 +4048,8 @@
       <c r="I59" s="8"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="30"/>
-      <c r="D60" s="39" t="s">
+      <c r="C60" s="34"/>
+      <c r="D60" s="43" t="s">
         <v>1</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -3617,8 +4069,8 @@
       </c>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="30"/>
-      <c r="D61" s="40"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="5" t="s">
         <v>18</v>
       </c>
@@ -3636,8 +4088,8 @@
       </c>
     </row>
     <row r="62" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C62" s="30"/>
-      <c r="D62" s="39" t="s">
+      <c r="C62" s="34"/>
+      <c r="D62" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E62" s="6" t="s">
@@ -3657,8 +4109,8 @@
       </c>
     </row>
     <row r="63" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C63" s="30"/>
-      <c r="D63" s="40"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="6" t="s">
         <v>12</v>
       </c>
@@ -3676,8 +4128,8 @@
       </c>
     </row>
     <row r="64" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C64" s="30"/>
-      <c r="D64" s="39" t="s">
+      <c r="C64" s="34"/>
+      <c r="D64" s="43" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="6" t="s">
@@ -3697,8 +4149,8 @@
       </c>
     </row>
     <row r="65" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C65" s="31"/>
-      <c r="D65" s="40"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="6" t="s">
         <v>10</v>
       </c>
@@ -3817,15 +4269,15 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
@@ -3848,10 +4300,10 @@
       <c r="D15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="7">
         <v>16.576000000000001</v>
       </c>
@@ -3869,10 +4321,10 @@
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="38"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="7">
         <v>19.858000000000001</v>
       </c>
@@ -3887,16 +4339,16 @@
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="33" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="1"/>
@@ -3909,8 +4361,8 @@
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D19" s="30"/>
-      <c r="E19" s="39" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="43" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
@@ -3930,8 +4382,8 @@
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D20" s="30"/>
-      <c r="E20" s="40"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="5" t="s">
         <v>18</v>
       </c>
@@ -3949,8 +4401,8 @@
       </c>
     </row>
     <row r="21" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D21" s="30"/>
-      <c r="E21" s="39" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -3970,8 +4422,8 @@
       </c>
     </row>
     <row r="22" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D22" s="30"/>
-      <c r="E22" s="40"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="6" t="s">
         <v>12</v>
       </c>
@@ -3989,8 +4441,8 @@
       </c>
     </row>
     <row r="23" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D23" s="30"/>
-      <c r="E23" s="39" t="s">
+      <c r="D23" s="34"/>
+      <c r="E23" s="43" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -4010,8 +4462,8 @@
       </c>
     </row>
     <row r="24" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D24" s="31"/>
-      <c r="E24" s="40"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="44"/>
       <c r="F24" s="6" t="s">
         <v>10</v>
       </c>
@@ -4029,15 +4481,15 @@
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
@@ -4060,10 +4512,10 @@
       <c r="D33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="38"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="7">
         <v>16.065000000000001</v>
       </c>
@@ -4081,10 +4533,10 @@
       <c r="D34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="38"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="7">
         <v>18.518999999999998</v>
       </c>
@@ -4099,16 +4551,16 @@
       </c>
     </row>
     <row r="35" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41"/>
     </row>
     <row r="36" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D36" s="29" t="s">
+      <c r="D36" s="33" t="s">
         <v>0</v>
       </c>
       <c r="E36" s="1"/>
@@ -4121,8 +4573,8 @@
       <c r="J36" s="8"/>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D37" s="30"/>
-      <c r="E37" s="39" t="s">
+      <c r="D37" s="34"/>
+      <c r="E37" s="43" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="5" t="s">
@@ -4142,8 +4594,8 @@
       </c>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D38" s="30"/>
-      <c r="E38" s="40"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="44"/>
       <c r="F38" s="5" t="s">
         <v>18</v>
       </c>
@@ -4161,8 +4613,8 @@
       </c>
     </row>
     <row r="39" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D39" s="30"/>
-      <c r="E39" s="39" t="s">
+      <c r="D39" s="34"/>
+      <c r="E39" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -4182,8 +4634,8 @@
       </c>
     </row>
     <row r="40" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D40" s="30"/>
-      <c r="E40" s="40"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="44"/>
       <c r="F40" s="6" t="s">
         <v>12</v>
       </c>
@@ -4201,8 +4653,8 @@
       </c>
     </row>
     <row r="41" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D41" s="30"/>
-      <c r="E41" s="39" t="s">
+      <c r="D41" s="34"/>
+      <c r="E41" s="43" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -4222,8 +4674,8 @@
       </c>
     </row>
     <row r="42" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D42" s="31"/>
-      <c r="E42" s="40"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="44"/>
       <c r="F42" s="6" t="s">
         <v>10</v>
       </c>
@@ -4508,15 +4960,15 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
@@ -4539,10 +4991,10 @@
       <c r="D13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="7">
         <v>21.106999999999999</v>
       </c>
@@ -4560,10 +5012,10 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="7">
         <v>21.571999999999999</v>
       </c>
@@ -4578,16 +5030,16 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="33" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="1"/>
@@ -4600,8 +5052,8 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D17" s="30"/>
-      <c r="E17" s="39" t="s">
+      <c r="D17" s="34"/>
+      <c r="E17" s="43" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -4621,8 +5073,8 @@
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D18" s="30"/>
-      <c r="E18" s="40"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="5" t="s">
         <v>18</v>
       </c>
@@ -4640,8 +5092,8 @@
       </c>
     </row>
     <row r="19" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D19" s="30"/>
-      <c r="E19" s="39" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -4661,8 +5113,8 @@
       </c>
     </row>
     <row r="20" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D20" s="30"/>
-      <c r="E20" s="40"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="6" t="s">
         <v>12</v>
       </c>
@@ -4680,8 +5132,8 @@
       </c>
     </row>
     <row r="21" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D21" s="30"/>
-      <c r="E21" s="39" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="43" t="s">
         <v>8</v>
       </c>
       <c r="F21" s="6" t="s">
@@ -4701,8 +5153,8 @@
       </c>
     </row>
     <row r="22" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D22" s="31"/>
-      <c r="E22" s="40"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
@@ -4720,15 +5172,15 @@
       </c>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D55" s="32" t="s">
+      <c r="D55" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
-      <c r="J55" s="34"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="38"/>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D56" s="1"/>
@@ -4751,10 +5203,10 @@
       <c r="D57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="38"/>
+      <c r="F57" s="42"/>
       <c r="G57" s="7">
         <v>14.680999999999999</v>
       </c>
@@ -4772,10 +5224,10 @@
       <c r="D58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="38"/>
+      <c r="F58" s="42"/>
       <c r="G58" s="7">
         <v>15.167</v>
       </c>
@@ -4790,16 +5242,16 @@
       </c>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D59" s="35"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="36"/>
-      <c r="J59" s="37"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D60" s="29" t="s">
+      <c r="D60" s="33" t="s">
         <v>0</v>
       </c>
       <c r="E60" s="1"/>
@@ -4812,8 +5264,8 @@
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D61" s="30"/>
-      <c r="E61" s="39" t="s">
+      <c r="D61" s="34"/>
+      <c r="E61" s="43" t="s">
         <v>1</v>
       </c>
       <c r="F61" s="5" t="s">
@@ -4833,8 +5285,8 @@
       </c>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D62" s="30"/>
-      <c r="E62" s="40"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="44"/>
       <c r="F62" s="5" t="s">
         <v>18</v>
       </c>
@@ -4852,8 +5304,8 @@
       </c>
     </row>
     <row r="63" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D63" s="30"/>
-      <c r="E63" s="39" t="s">
+      <c r="D63" s="34"/>
+      <c r="E63" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -4873,8 +5325,8 @@
       </c>
     </row>
     <row r="64" spans="4:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="D64" s="30"/>
-      <c r="E64" s="40"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="44"/>
       <c r="F64" s="6" t="s">
         <v>12</v>
       </c>
@@ -4892,8 +5344,8 @@
       </c>
     </row>
     <row r="65" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D65" s="30"/>
-      <c r="E65" s="39" t="s">
+      <c r="D65" s="34"/>
+      <c r="E65" s="43" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -4913,8 +5365,8 @@
       </c>
     </row>
     <row r="66" spans="4:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D66" s="31"/>
-      <c r="E66" s="40"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="44"/>
       <c r="F66" s="6" t="s">
         <v>10</v>
       </c>
@@ -5061,8 +5513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593E860B-31CE-49AA-819C-5582CF48EF8C}">
   <dimension ref="B2:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC60" sqref="AC60"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5102,15 +5554,15 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
@@ -5133,10 +5585,10 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="7">
         <v>11.747999999999999</v>
       </c>
@@ -5154,10 +5606,10 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="7">
         <v>15.484</v>
       </c>
@@ -5172,16 +5624,16 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="60" t="s">
         <v>0</v>
       </c>
       <c r="D14" s="1"/>
@@ -5194,8 +5646,8 @@
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C15" s="58"/>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="43" t="s">
         <v>1</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -5215,8 +5667,8 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="58"/>
-      <c r="D16" s="40"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="5" t="s">
         <v>18</v>
       </c>
@@ -5234,8 +5686,8 @@
       </c>
     </row>
     <row r="17" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C17" s="58"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="61"/>
+      <c r="D17" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -5255,8 +5707,8 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C18" s="58"/>
-      <c r="D18" s="40"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="44"/>
       <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
@@ -5274,8 +5726,8 @@
       </c>
     </row>
     <row r="19" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C19" s="58"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="43" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="6" t="s">
@@ -5295,8 +5747,8 @@
       </c>
     </row>
     <row r="20" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C20" s="58"/>
-      <c r="D20" s="40"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="6" t="s">
         <v>10</v>
       </c>
@@ -5314,98 +5766,98 @@
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C21" s="58"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F21" s="60">
+      <c r="F21" s="65">
         <v>15.784000000000001</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="64">
         <v>11.292999999999999</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="66">
         <v>7.4380000000000002E-2</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="64">
         <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="58"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="64"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="58"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="64"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C24" s="58"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="58"/>
-      <c r="D25" s="62"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="60">
+      <c r="F25" s="65">
         <v>16.449000000000002</v>
       </c>
-      <c r="G25" s="56">
+      <c r="G25" s="64">
         <v>12.227</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="66">
         <v>8.1070000000000003E-2</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="64">
         <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="58"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="64"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="58"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="64"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C28" s="59"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="64"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
@@ -5433,15 +5885,15 @@
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="38"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
@@ -5464,10 +5916,10 @@
       <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="38"/>
+      <c r="E43" s="42"/>
       <c r="F43" s="7">
         <v>12.205</v>
       </c>
@@ -5485,10 +5937,10 @@
       <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="38"/>
+      <c r="E44" s="42"/>
       <c r="F44" s="7">
         <v>15.252000000000001</v>
       </c>
@@ -5503,16 +5955,16 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C45" s="35"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="41"/>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C46" s="57" t="s">
+      <c r="C46" s="60" t="s">
         <v>0</v>
       </c>
       <c r="D46" s="1"/>
@@ -5525,8 +5977,8 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C47" s="58"/>
-      <c r="D47" s="39" t="s">
+      <c r="C47" s="61"/>
+      <c r="D47" s="43" t="s">
         <v>1</v>
       </c>
       <c r="E47" s="5" t="s">
@@ -5546,8 +5998,8 @@
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C48" s="58"/>
-      <c r="D48" s="40"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="5" t="s">
         <v>18</v>
       </c>
@@ -5565,8 +6017,8 @@
       </c>
     </row>
     <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C49" s="58"/>
-      <c r="D49" s="39" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="6" t="s">
@@ -5586,8 +6038,8 @@
       </c>
     </row>
     <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C50" s="58"/>
-      <c r="D50" s="40"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="6" t="s">
         <v>12</v>
       </c>
@@ -5605,8 +6057,8 @@
       </c>
     </row>
     <row r="51" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C51" s="58"/>
-      <c r="D51" s="39" t="s">
+      <c r="C51" s="61"/>
+      <c r="D51" s="43" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -5626,9 +6078,9 @@
       </c>
     </row>
     <row r="52" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C52" s="58"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="61" t="s">
+      <c r="C52" s="61"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="29" t="s">
         <v>10</v>
       </c>
       <c r="F52" s="7">
@@ -5645,98 +6097,98 @@
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C53" s="58"/>
-      <c r="D53" s="39" t="s">
+      <c r="C53" s="61"/>
+      <c r="D53" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E53" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F53" s="60">
+      <c r="F53" s="65">
         <v>16.405000000000001</v>
       </c>
-      <c r="G53" s="56">
+      <c r="G53" s="64">
         <v>11.96</v>
       </c>
-      <c r="H53" s="55">
+      <c r="H53" s="66">
         <v>7.8710000000000002E-2</v>
       </c>
-      <c r="I53" s="56">
+      <c r="I53" s="64">
         <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C54" s="58"/>
-      <c r="D54" s="62"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="56"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="64"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C55" s="58"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="56"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="64"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C56" s="58"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="56"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="64"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="58"/>
-      <c r="D57" s="62"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="60">
+      <c r="F57" s="65">
         <v>17.178000000000001</v>
       </c>
-      <c r="G57" s="56">
+      <c r="G57" s="64">
         <v>12.673999999999999</v>
       </c>
-      <c r="H57" s="55">
+      <c r="H57" s="66">
         <v>8.5080000000000003E-2</v>
       </c>
-      <c r="I57" s="56">
+      <c r="I57" s="64">
         <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="58"/>
-      <c r="D58" s="62"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="56"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="64"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="64"/>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="58"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="56"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="64"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="59"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="56"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="64"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="28" t="s">
@@ -5770,15 +6222,15 @@
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C70" s="32" t="s">
+      <c r="C70" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="33"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="34"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="38"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C71" s="1"/>
@@ -5801,10 +6253,10 @@
       <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="38" t="s">
+      <c r="D72" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="38"/>
+      <c r="E72" s="42"/>
       <c r="F72" s="7">
         <v>12.335000000000001</v>
       </c>
@@ -5822,10 +6274,10 @@
       <c r="C73" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="38" t="s">
+      <c r="D73" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="38"/>
+      <c r="E73" s="42"/>
       <c r="F73" s="7">
         <v>12.414</v>
       </c>
@@ -5840,16 +6292,16 @@
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C74" s="35"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="37"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="41"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C75" s="57" t="s">
+      <c r="C75" s="60" t="s">
         <v>0</v>
       </c>
       <c r="D75" s="1"/>
@@ -5862,8 +6314,8 @@
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C76" s="58"/>
-      <c r="D76" s="39" t="s">
+      <c r="C76" s="61"/>
+      <c r="D76" s="43" t="s">
         <v>1</v>
       </c>
       <c r="E76" s="5" t="s">
@@ -5883,8 +6335,8 @@
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C77" s="58"/>
-      <c r="D77" s="62"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="5">
         <v>20</v>
       </c>
@@ -5902,8 +6354,8 @@
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C78" s="58"/>
-      <c r="D78" s="62"/>
+      <c r="C78" s="61"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="5" t="s">
         <v>18</v>
       </c>
@@ -5921,8 +6373,8 @@
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C79" s="58"/>
-      <c r="D79" s="62"/>
+      <c r="C79" s="61"/>
+      <c r="D79" s="59"/>
       <c r="E79" s="7">
         <v>40</v>
       </c>
@@ -5940,8 +6392,8 @@
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C80" s="58"/>
-      <c r="D80" s="40"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="44"/>
       <c r="E80" s="7">
         <v>50</v>
       </c>
@@ -5959,8 +6411,8 @@
       </c>
     </row>
     <row r="81" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C81" s="58"/>
-      <c r="D81" s="39" t="s">
+      <c r="C81" s="61"/>
+      <c r="D81" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E81" s="6" t="s">
@@ -5980,8 +6432,8 @@
       </c>
     </row>
     <row r="82" spans="3:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C82" s="58"/>
-      <c r="D82" s="40"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="44"/>
       <c r="E82" s="6" t="s">
         <v>12</v>
       </c>
@@ -5999,8 +6451,8 @@
       </c>
     </row>
     <row r="83" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C83" s="58"/>
-      <c r="D83" s="39" t="s">
+      <c r="C83" s="61"/>
+      <c r="D83" s="43" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="6" t="s">
@@ -6020,8 +6472,8 @@
       </c>
     </row>
     <row r="84" spans="3:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C84" s="58"/>
-      <c r="D84" s="40"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="44"/>
       <c r="E84" s="6" t="s">
         <v>10</v>
       </c>
@@ -6039,128 +6491,109 @@
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C85" s="58"/>
-      <c r="D85" s="39" t="s">
+      <c r="C85" s="61"/>
+      <c r="D85" s="43" t="s">
         <v>49</v>
       </c>
       <c r="E85" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="60">
+      <c r="F85" s="65">
         <v>13.427</v>
       </c>
-      <c r="G85" s="56">
+      <c r="G85" s="64">
         <v>9.5060000000000002</v>
       </c>
-      <c r="H85" s="55">
+      <c r="H85" s="66">
         <v>6.3420000000000004E-2</v>
       </c>
-      <c r="I85" s="56">
+      <c r="I85" s="64">
         <v>0.70899999999999996</v>
       </c>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C86" s="58"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="56"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="56"/>
+      <c r="C86" s="61"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="64"/>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C87" s="58"/>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="56"/>
-      <c r="H87" s="55"/>
-      <c r="I87" s="56"/>
+      <c r="C87" s="61"/>
+      <c r="D87" s="59"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="64"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="64"/>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C88" s="58"/>
-      <c r="D88" s="62"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="55"/>
-      <c r="I88" s="56"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="64"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="64"/>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C89" s="58"/>
-      <c r="D89" s="62"/>
+      <c r="C89" s="61"/>
+      <c r="D89" s="59"/>
       <c r="E89" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="F89" s="60">
+      <c r="F89" s="65">
         <v>13.492000000000001</v>
       </c>
-      <c r="G89" s="56">
+      <c r="G89" s="64">
         <v>9.8070000000000004</v>
       </c>
-      <c r="H89" s="55">
+      <c r="H89" s="66">
         <v>6.4149999999999999E-2</v>
       </c>
-      <c r="I89" s="56">
+      <c r="I89" s="64">
         <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C90" s="58"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="56"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="56"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="64"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="64"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C91" s="58"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="56"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="56"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="64"/>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C92" s="59"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="56"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="56"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="64"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="64"/>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="F93" s="64">
+      <c r="F93" s="12">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="F57:F60"/>
-    <mergeCell ref="G57:G60"/>
-    <mergeCell ref="H57:H60"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="D53:D60"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H53:H56"/>
-    <mergeCell ref="I53:I56"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="D21:D28"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
-    <mergeCell ref="H21:H24"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="I85:I88"/>
     <mergeCell ref="F89:F92"/>
     <mergeCell ref="G89:G92"/>
@@ -6169,34 +6602,1466 @@
     <mergeCell ref="F85:F88"/>
     <mergeCell ref="G85:G88"/>
     <mergeCell ref="H85:H88"/>
-    <mergeCell ref="E85:E88"/>
-    <mergeCell ref="E89:E92"/>
-    <mergeCell ref="D85:D92"/>
+    <mergeCell ref="D53:D60"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H53:H56"/>
+    <mergeCell ref="I53:I56"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C14:C28"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D21:D28"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="E25:E28"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C14:C28"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="D47:D48"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="C46:C60"/>
     <mergeCell ref="C70:I70"/>
     <mergeCell ref="D72:E72"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F57:F60"/>
+    <mergeCell ref="G57:G60"/>
+    <mergeCell ref="H57:H60"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="E57:E60"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="C74:I74"/>
     <mergeCell ref="D76:D80"/>
     <mergeCell ref="D81:D82"/>
     <mergeCell ref="D83:D84"/>
     <mergeCell ref="C75:C92"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="E89:E92"/>
+    <mergeCell ref="D85:D92"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B648B5B-63B2-45ED-B65D-0D4D4B02FC50}">
+  <dimension ref="B3:K146"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12.456</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8.67</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5.6849999999999998E-2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15.423</v>
+      </c>
+      <c r="E10" s="8">
+        <v>11.614000000000001</v>
+      </c>
+      <c r="F10" s="32">
+        <v>7.5829999999999995E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.61699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="7">
+        <v>15.335000000000001</v>
+      </c>
+      <c r="E11" s="8">
+        <v>11.154</v>
+      </c>
+      <c r="F11" s="9">
+        <v>7.3330000000000006E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="1"/>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="7">
+        <v>12.451000000000001</v>
+      </c>
+      <c r="E24" s="8">
+        <v>8.7249999999999996</v>
+      </c>
+      <c r="F24" s="9">
+        <v>5.7230000000000003E-2</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="7">
+        <v>15.42</v>
+      </c>
+      <c r="E25" s="8">
+        <v>11.615</v>
+      </c>
+      <c r="F25" s="32">
+        <v>7.578E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="7">
+        <v>12.574999999999999</v>
+      </c>
+      <c r="E33" s="8">
+        <v>8.8539999999999992</v>
+      </c>
+      <c r="F33" s="9">
+        <v>5.8009999999999999E-2</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="7">
+        <v>15.558999999999999</v>
+      </c>
+      <c r="E34" s="8">
+        <v>11.696</v>
+      </c>
+      <c r="F34" s="32">
+        <v>7.6329999999999995E-2</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="1"/>
+      <c r="D41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="7">
+        <v>12.521000000000001</v>
+      </c>
+      <c r="E42" s="8">
+        <v>8.7579999999999991</v>
+      </c>
+      <c r="F42" s="9">
+        <v>5.7419999999999999E-2</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="7">
+        <v>15.61</v>
+      </c>
+      <c r="E43" s="8">
+        <v>11.768000000000001</v>
+      </c>
+      <c r="F43" s="32">
+        <v>7.6810000000000003E-2</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="13"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="1"/>
+      <c r="D51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="7">
+        <v>12.587999999999999</v>
+      </c>
+      <c r="E52" s="8">
+        <v>8.7639999999999993</v>
+      </c>
+      <c r="F52" s="9">
+        <v>5.722E-2</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="7">
+        <v>15.948</v>
+      </c>
+      <c r="E53" s="8">
+        <v>12.084</v>
+      </c>
+      <c r="F53" s="32">
+        <v>7.8869999999999996E-2</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0.59099999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C61" s="1"/>
+      <c r="D61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="7">
+        <v>12.406000000000001</v>
+      </c>
+      <c r="E62" s="8">
+        <v>8.6029999999999998</v>
+      </c>
+      <c r="F62" s="9">
+        <v>5.636E-2</v>
+      </c>
+      <c r="G62" s="30">
+        <v>0.752</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C63" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="7">
+        <v>15.125999999999999</v>
+      </c>
+      <c r="E63" s="8">
+        <v>11.566000000000001</v>
+      </c>
+      <c r="F63" s="32">
+        <v>7.5450000000000003E-2</v>
+      </c>
+      <c r="G63" s="30">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C71" s="1"/>
+      <c r="D71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="7">
+        <v>12.590999999999999</v>
+      </c>
+      <c r="E72" s="8">
+        <v>8.798</v>
+      </c>
+      <c r="F72" s="9">
+        <v>5.7680000000000002E-2</v>
+      </c>
+      <c r="G72" s="8">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C73" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="E73" s="8">
+        <v>11.696999999999999</v>
+      </c>
+      <c r="F73" s="32">
+        <v>7.6310000000000003E-2</v>
+      </c>
+      <c r="G73" s="8">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C81" s="1"/>
+      <c r="D81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="7">
+        <v>12.359</v>
+      </c>
+      <c r="E82" s="8">
+        <v>8.5730000000000004</v>
+      </c>
+      <c r="F82" s="9">
+        <v>5.6160000000000002E-2</v>
+      </c>
+      <c r="G82" s="30">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C83" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="7">
+        <v>15.371</v>
+      </c>
+      <c r="E83" s="8">
+        <v>11.631</v>
+      </c>
+      <c r="F83" s="32">
+        <v>7.596E-2</v>
+      </c>
+      <c r="G83" s="8">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C91" s="1"/>
+      <c r="D91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="7">
+        <v>12.394</v>
+      </c>
+      <c r="E92" s="8">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="F92" s="9">
+        <v>5.6370000000000003E-2</v>
+      </c>
+      <c r="G92" s="30">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C93" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D93" s="7">
+        <v>15.379</v>
+      </c>
+      <c r="E93" s="8">
+        <v>11.596</v>
+      </c>
+      <c r="F93" s="32">
+        <v>7.5649999999999995E-2</v>
+      </c>
+      <c r="G93" s="8">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C101" s="1"/>
+      <c r="D101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="7">
+        <v>14.000999999999999</v>
+      </c>
+      <c r="E102" s="8">
+        <v>9.7780000000000005</v>
+      </c>
+      <c r="F102" s="9">
+        <v>6.4130000000000006E-2</v>
+      </c>
+      <c r="G102" s="31">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D103" s="7">
+        <v>15.984999999999999</v>
+      </c>
+      <c r="E103" s="8">
+        <v>12.018000000000001</v>
+      </c>
+      <c r="F103" s="32">
+        <v>7.8600000000000003E-2</v>
+      </c>
+      <c r="G103" s="31">
+        <v>0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>20</v>
+      </c>
+      <c r="C107" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C111" s="1"/>
+      <c r="D111" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" s="7">
+        <v>12.443</v>
+      </c>
+      <c r="E112" s="8">
+        <v>8.6809999999999992</v>
+      </c>
+      <c r="F112" s="32">
+        <v>5.6959999999999997E-2</v>
+      </c>
+      <c r="G112" s="30">
+        <v>0.751</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C113" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D113" s="7">
+        <v>15.396000000000001</v>
+      </c>
+      <c r="E113" s="8">
+        <v>11.593</v>
+      </c>
+      <c r="F113" s="32">
+        <v>7.5679999999999997E-2</v>
+      </c>
+      <c r="G113" s="30">
+        <v>0.61899999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C122" s="1"/>
+      <c r="D122" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="7">
+        <v>12.763</v>
+      </c>
+      <c r="E123" s="8">
+        <v>8.8490000000000002</v>
+      </c>
+      <c r="F123" s="32">
+        <v>5.7709999999999997E-2</v>
+      </c>
+      <c r="G123" s="31">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C124" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D124" s="7">
+        <v>15.755000000000001</v>
+      </c>
+      <c r="E124" s="8">
+        <v>12.048</v>
+      </c>
+      <c r="F124" s="32">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="G124" s="31">
+        <v>0.56100000000000005</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="7">
+        <v>16.908999999999999</v>
+      </c>
+      <c r="E125" s="8">
+        <v>12.612</v>
+      </c>
+      <c r="F125" s="9">
+        <v>8.3680000000000004E-2</v>
+      </c>
+      <c r="G125" s="31">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C132" s="1"/>
+      <c r="D132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C133" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="7">
+        <v>12.486000000000001</v>
+      </c>
+      <c r="E133" s="8">
+        <v>5.7279999999999998</v>
+      </c>
+      <c r="F133" s="32">
+        <v>5.7209999999999997E-2</v>
+      </c>
+      <c r="G133" s="8">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C134" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D134" s="7">
+        <v>15.297000000000001</v>
+      </c>
+      <c r="E134" s="8">
+        <v>11.555</v>
+      </c>
+      <c r="F134" s="32">
+        <v>7.5480000000000005E-2</v>
+      </c>
+      <c r="G134" s="8">
+        <v>0.624</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="7">
+        <v>15.519</v>
+      </c>
+      <c r="E135" s="8">
+        <v>11.298999999999999</v>
+      </c>
+      <c r="F135" s="9">
+        <v>7.5060000000000002E-2</v>
+      </c>
+      <c r="G135" s="8">
+        <v>0.61299999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C143" s="1"/>
+      <c r="D143" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="7">
+        <v>12.531000000000001</v>
+      </c>
+      <c r="E144" s="8">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="F144" s="32">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="G144" s="30">
+        <v>0.747</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C145" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D145" s="7">
+        <v>13.324999999999999</v>
+      </c>
+      <c r="E145" s="8">
+        <v>11.574999999999999</v>
+      </c>
+      <c r="F145" s="32">
+        <v>7.5609999999999997E-2</v>
+      </c>
+      <c r="G145" s="30">
+        <v>0.622</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C146" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="7">
+        <v>15.212</v>
+      </c>
+      <c r="E146" s="8">
+        <v>11.143000000000001</v>
+      </c>
+      <c r="F146" s="9">
+        <v>7.3459999999999998E-2</v>
+      </c>
+      <c r="G146" s="30">
+        <v>0.628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55EB2EF-B071-4B15-94F8-01FD4054A919}">
+  <dimension ref="B2:G43"/>
+  <sheetViews>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11.717000000000001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="F8" s="32">
+        <v>5.441E-2</v>
+      </c>
+      <c r="G8" s="67">
+        <v>0.77900000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>14.567</v>
+      </c>
+      <c r="E9" s="8">
+        <v>11.084</v>
+      </c>
+      <c r="F9" s="32">
+        <v>7.2349999999999998E-2</v>
+      </c>
+      <c r="G9" s="67">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15.098000000000001</v>
+      </c>
+      <c r="E10" s="8">
+        <v>10.949</v>
+      </c>
+      <c r="F10" s="9">
+        <v>7.2859999999999994E-2</v>
+      </c>
+      <c r="G10" s="67">
+        <v>0.63300000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>12.237</v>
+      </c>
+      <c r="E18" s="8">
+        <v>8.625</v>
+      </c>
+      <c r="F18" s="32">
+        <v>5.6419999999999998E-2</v>
+      </c>
+      <c r="G18" s="67">
+        <v>0.75900000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="7">
+        <v>14.9</v>
+      </c>
+      <c r="E19" s="8">
+        <v>11.24</v>
+      </c>
+      <c r="F19" s="32">
+        <v>7.3270000000000002E-2</v>
+      </c>
+      <c r="G19" s="67">
+        <v>0.64300000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="7">
+        <v>15.35</v>
+      </c>
+      <c r="E20" s="8">
+        <v>11.282</v>
+      </c>
+      <c r="F20" s="9">
+        <v>7.3899999999999993E-2</v>
+      </c>
+      <c r="G20" s="67">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C27" s="68" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C29" s="1"/>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="7">
+        <v>12.358000000000001</v>
+      </c>
+      <c r="E30" s="8">
+        <v>8.7170000000000005</v>
+      </c>
+      <c r="F30" s="32">
+        <v>5.7209999999999997E-2</v>
+      </c>
+      <c r="G30" s="67">
+        <v>0.754</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="7">
+        <v>15.212</v>
+      </c>
+      <c r="E31" s="8">
+        <v>11.635</v>
+      </c>
+      <c r="F31" s="32">
+        <v>7.6439999999999994E-2</v>
+      </c>
+      <c r="G31" s="67">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="7">
+        <v>15.007</v>
+      </c>
+      <c r="E32" s="8">
+        <v>11.039</v>
+      </c>
+      <c r="F32" s="9">
+        <v>7.2569999999999996E-2</v>
+      </c>
+      <c r="G32" s="67">
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="1"/>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="7">
+        <v>12.483000000000001</v>
+      </c>
+      <c r="E41" s="8">
+        <v>8.7919999999999998</v>
+      </c>
+      <c r="F41" s="32">
+        <v>5.7610000000000001E-2</v>
+      </c>
+      <c r="G41" s="67">
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="7">
+        <v>15.194000000000001</v>
+      </c>
+      <c r="E42" s="8">
+        <v>11.481999999999999</v>
+      </c>
+      <c r="F42" s="32">
+        <v>7.4910000000000004E-2</v>
+      </c>
+      <c r="G42" s="67">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="7">
+        <v>15.493</v>
+      </c>
+      <c r="E43" s="8">
+        <v>11.286</v>
+      </c>
+      <c r="F43" s="9">
+        <v>7.4620000000000006E-2</v>
+      </c>
+      <c r="G43" s="67">
+        <v>0.61399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
